--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_XAI_NoEng_swish.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_XAI_NoEng_swish.xlsx
@@ -505,16 +505,16 @@
         <v>10.27148578895017</v>
       </c>
       <c r="G2" t="n">
-        <v>208.5287322998047</v>
+        <v>197.7309112548828</v>
       </c>
       <c r="H2" t="n">
-        <v>33.28852081298828</v>
+        <v>40.01806259155273</v>
       </c>
       <c r="I2" t="n">
-        <v>673.5814208984375</v>
+        <v>660.4866333007812</v>
       </c>
       <c r="J2" t="n">
-        <v>32.04604721069336</v>
+        <v>29.02350425720215</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>10.49540628405087</v>
       </c>
       <c r="G3" t="n">
-        <v>219.6072387695312</v>
+        <v>215.1867065429688</v>
       </c>
       <c r="H3" t="n">
-        <v>27.53924560546875</v>
+        <v>43.54281616210938</v>
       </c>
       <c r="I3" t="n">
-        <v>725.4843139648438</v>
+        <v>711.52001953125</v>
       </c>
       <c r="J3" t="n">
-        <v>37.90631484985352</v>
+        <v>32.6512565612793</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>11.11292799977388</v>
       </c>
       <c r="G4" t="n">
-        <v>229.68115234375</v>
+        <v>229.0365753173828</v>
       </c>
       <c r="H4" t="n">
-        <v>24.7101993560791</v>
+        <v>43.42191314697266</v>
       </c>
       <c r="I4" t="n">
-        <v>751.4695434570312</v>
+        <v>736.962890625</v>
       </c>
       <c r="J4" t="n">
-        <v>45.23867797851562</v>
+        <v>35.94400405883789</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>11.33579528302992</v>
       </c>
       <c r="G5" t="n">
-        <v>246.5808715820312</v>
+        <v>248.28466796875</v>
       </c>
       <c r="H5" t="n">
-        <v>24.18967819213867</v>
+        <v>43.86650848388672</v>
       </c>
       <c r="I5" t="n">
-        <v>770.4364624023438</v>
+        <v>756.2783813476562</v>
       </c>
       <c r="J5" t="n">
-        <v>55.27923583984375</v>
+        <v>40.26661682128906</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>11.53221857575777</v>
       </c>
       <c r="G6" t="n">
-        <v>267.3924255371094</v>
+        <v>268.6750793457031</v>
       </c>
       <c r="H6" t="n">
-        <v>26.46040534973145</v>
+        <v>43.37819671630859</v>
       </c>
       <c r="I6" t="n">
-        <v>766.8217163085938</v>
+        <v>754.0162963867188</v>
       </c>
       <c r="J6" t="n">
-        <v>68.67832183837891</v>
+        <v>43.74077606201172</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>11.73836346032553</v>
       </c>
       <c r="G7" t="n">
-        <v>197.6844024658203</v>
+        <v>169.3572387695312</v>
       </c>
       <c r="H7" t="n">
-        <v>56.21775436401367</v>
+        <v>40.50752258300781</v>
       </c>
       <c r="I7" t="n">
-        <v>471.6880798339844</v>
+        <v>464.0035400390625</v>
       </c>
       <c r="J7" t="n">
-        <v>34.95661544799805</v>
+        <v>26.4653205871582</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>12.47588443056982</v>
       </c>
       <c r="G8" t="n">
-        <v>194.9871826171875</v>
+        <v>174.5661163330078</v>
       </c>
       <c r="H8" t="n">
-        <v>45.61710739135742</v>
+        <v>36.08069610595703</v>
       </c>
       <c r="I8" t="n">
-        <v>541.7444458007812</v>
+        <v>531.6930541992188</v>
       </c>
       <c r="J8" t="n">
-        <v>34.47844696044922</v>
+        <v>27.28792190551758</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>13.31360035996819</v>
       </c>
       <c r="G9" t="n">
-        <v>195.45458984375</v>
+        <v>183.2216644287109</v>
       </c>
       <c r="H9" t="n">
-        <v>35.5645751953125</v>
+        <v>32.65544891357422</v>
       </c>
       <c r="I9" t="n">
-        <v>605.1775512695312</v>
+        <v>593.8458251953125</v>
       </c>
       <c r="J9" t="n">
-        <v>37.55226135253906</v>
+        <v>30.13705825805664</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>14.04586286313179</v>
       </c>
       <c r="G10" t="n">
-        <v>199.949462890625</v>
+        <v>195.0855560302734</v>
       </c>
       <c r="H10" t="n">
-        <v>26.86736679077148</v>
+        <v>29.85960006713867</v>
       </c>
       <c r="I10" t="n">
-        <v>648.7294921875</v>
+        <v>636.8699340820312</v>
       </c>
       <c r="J10" t="n">
-        <v>45.59510040283203</v>
+        <v>34.41506195068359</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>14.78596965177877</v>
       </c>
       <c r="G11" t="n">
-        <v>214.1421356201172</v>
+        <v>214.2283325195312</v>
       </c>
       <c r="H11" t="n">
-        <v>20.65111923217773</v>
+        <v>29.99617004394531</v>
       </c>
       <c r="I11" t="n">
-        <v>687.7682495117188</v>
+        <v>676.4918823242188</v>
       </c>
       <c r="J11" t="n">
-        <v>58.48323059082031</v>
+        <v>39.38330841064453</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>14.60750023008277</v>
       </c>
       <c r="G12" t="n">
-        <v>235.0926971435547</v>
+        <v>236.1377105712891</v>
       </c>
       <c r="H12" t="n">
-        <v>19.70682334899902</v>
+        <v>32.5367317199707</v>
       </c>
       <c r="I12" t="n">
-        <v>698.562255859375</v>
+        <v>686.3414916992188</v>
       </c>
       <c r="J12" t="n">
-        <v>75.4775390625</v>
+        <v>43.99849700927734</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>13.93632017907879</v>
       </c>
       <c r="G13" t="n">
-        <v>284.6930847167969</v>
+        <v>280.884765625</v>
       </c>
       <c r="H13" t="n">
-        <v>27.11591148376465</v>
+        <v>41.09183120727539</v>
       </c>
       <c r="I13" t="n">
-        <v>708.8051147460938</v>
+        <v>690.33935546875</v>
       </c>
       <c r="J13" t="n">
-        <v>106.4164199829102</v>
+        <v>49.96541595458984</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>13.2060787967079</v>
       </c>
       <c r="G14" t="n">
-        <v>212.6807403564453</v>
+        <v>170.8653106689453</v>
       </c>
       <c r="H14" t="n">
-        <v>76.51454925537109</v>
+        <v>48.95794677734375</v>
       </c>
       <c r="I14" t="n">
-        <v>233.072998046875</v>
+        <v>235.0804290771484</v>
       </c>
       <c r="J14" t="n">
-        <v>38.71476364135742</v>
+        <v>40.92119216918945</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>14.43724685121477</v>
       </c>
       <c r="G15" t="n">
-        <v>202.4957122802734</v>
+        <v>167.4610748291016</v>
       </c>
       <c r="H15" t="n">
-        <v>66.10738372802734</v>
+        <v>44.64936828613281</v>
       </c>
       <c r="I15" t="n">
-        <v>317.0375366210938</v>
+        <v>315.2296752929688</v>
       </c>
       <c r="J15" t="n">
-        <v>39.20545959472656</v>
+        <v>38.59541320800781</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>15.77509757365795</v>
       </c>
       <c r="G16" t="n">
-        <v>194.3538665771484</v>
+        <v>167.1064300537109</v>
       </c>
       <c r="H16" t="n">
-        <v>55.21384811401367</v>
+        <v>39.64257431030273</v>
       </c>
       <c r="I16" t="n">
-        <v>392.9659729003906</v>
+        <v>388.2242431640625</v>
       </c>
       <c r="J16" t="n">
-        <v>39.48849868774414</v>
+        <v>37.967529296875</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>17.01643502058164</v>
       </c>
       <c r="G17" t="n">
-        <v>187.6817474365234</v>
+        <v>170.3897705078125</v>
       </c>
       <c r="H17" t="n">
-        <v>42.71075820922852</v>
+        <v>33.50944519042969</v>
       </c>
       <c r="I17" t="n">
-        <v>477.3229675292969</v>
+        <v>469.7760925292969</v>
       </c>
       <c r="J17" t="n">
-        <v>42.75817108154297</v>
+        <v>39.72177886962891</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>17.57324774662381</v>
       </c>
       <c r="G18" t="n">
-        <v>185.8646240234375</v>
+        <v>175.0790252685547</v>
       </c>
       <c r="H18" t="n">
-        <v>34.93571090698242</v>
+        <v>29.47323226928711</v>
       </c>
       <c r="I18" t="n">
-        <v>520.6633911132812</v>
+        <v>511.8874206542969</v>
       </c>
       <c r="J18" t="n">
-        <v>47.94223785400391</v>
+        <v>42.99642562866211</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>18.2282289394109</v>
       </c>
       <c r="G19" t="n">
-        <v>192.6914520263672</v>
+        <v>190.6531982421875</v>
       </c>
       <c r="H19" t="n">
-        <v>23.89344596862793</v>
+        <v>24.68264007568359</v>
       </c>
       <c r="I19" t="n">
-        <v>584.6439819335938</v>
+        <v>573.3204345703125</v>
       </c>
       <c r="J19" t="n">
-        <v>64.3267822265625</v>
+        <v>49.64289093017578</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>18.05168677518481</v>
       </c>
       <c r="G20" t="n">
-        <v>211.1318359375</v>
+        <v>211.9327239990234</v>
       </c>
       <c r="H20" t="n">
-        <v>18.92546463012695</v>
+        <v>25.50544548034668</v>
       </c>
       <c r="I20" t="n">
-        <v>615.4862670898438</v>
+        <v>599.1485595703125</v>
       </c>
       <c r="J20" t="n">
-        <v>84.81594848632812</v>
+        <v>56.44349670410156</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>17.30316829702608</v>
       </c>
       <c r="G21" t="n">
-        <v>261.4907531738281</v>
+        <v>258.2533874511719</v>
       </c>
       <c r="H21" t="n">
-        <v>22.64425468444824</v>
+        <v>33.91220474243164</v>
       </c>
       <c r="I21" t="n">
-        <v>647.7842407226562</v>
+        <v>618.2099609375</v>
       </c>
       <c r="J21" t="n">
-        <v>120.2527313232422</v>
+        <v>64.78905487060547</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>15.87142913305469</v>
       </c>
       <c r="G22" t="n">
-        <v>357.9721984863281</v>
+        <v>343.5586853027344</v>
       </c>
       <c r="H22" t="n">
-        <v>35.94435882568359</v>
+        <v>45.1806755065918</v>
       </c>
       <c r="I22" t="n">
-        <v>682.6286010742188</v>
+        <v>623.6533813476562</v>
       </c>
       <c r="J22" t="n">
-        <v>173.9591979980469</v>
+        <v>82.39170837402344</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>16.2842163689804</v>
       </c>
       <c r="G23" t="n">
-        <v>218.1945953369141</v>
+        <v>175.5448608398438</v>
       </c>
       <c r="H23" t="n">
-        <v>78.46891784667969</v>
+        <v>49.35330581665039</v>
       </c>
       <c r="I23" t="n">
-        <v>123.7361068725586</v>
+        <v>130.6399383544922</v>
       </c>
       <c r="J23" t="n">
-        <v>37.53140640258789</v>
+        <v>50.89671325683594</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>17.99859633271077</v>
       </c>
       <c r="G24" t="n">
-        <v>208.6697998046875</v>
+        <v>171.1555023193359</v>
       </c>
       <c r="H24" t="n">
-        <v>69.67381286621094</v>
+        <v>45.90435409545898</v>
       </c>
       <c r="I24" t="n">
-        <v>192.1574249267578</v>
+        <v>196.1012115478516</v>
       </c>
       <c r="J24" t="n">
-        <v>39.1786994934082</v>
+        <v>49.62169647216797</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>19.53665474474453</v>
       </c>
       <c r="G25" t="n">
-        <v>198.4053192138672</v>
+        <v>167.7763214111328</v>
       </c>
       <c r="H25" t="n">
-        <v>60.03472137451172</v>
+        <v>42.03106689453125</v>
       </c>
       <c r="I25" t="n">
-        <v>250.6719818115234</v>
+        <v>252.0361175537109</v>
       </c>
       <c r="J25" t="n">
-        <v>41.00756454467773</v>
+        <v>52.00088882446289</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>21.18080958029204</v>
       </c>
       <c r="G26" t="n">
-        <v>188.5641021728516</v>
+        <v>166.4980773925781</v>
       </c>
       <c r="H26" t="n">
-        <v>48.93777847290039</v>
+        <v>37.03203964233398</v>
       </c>
       <c r="I26" t="n">
-        <v>319.4007263183594</v>
+        <v>317.529541015625</v>
       </c>
       <c r="J26" t="n">
-        <v>44.97267532348633</v>
+        <v>55.39272689819336</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>22.36133238808863</v>
       </c>
       <c r="G27" t="n">
-        <v>181.8033599853516</v>
+        <v>169.6369476318359</v>
       </c>
       <c r="H27" t="n">
-        <v>36.81157684326172</v>
+        <v>30.57095909118652</v>
       </c>
       <c r="I27" t="n">
-        <v>401.622314453125</v>
+        <v>395.6465759277344</v>
       </c>
       <c r="J27" t="n">
-        <v>54.01132965087891</v>
+        <v>59.85556411743164</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>22.25528267810615</v>
       </c>
       <c r="G28" t="n">
-        <v>181.8185882568359</v>
+        <v>177.2487335205078</v>
       </c>
       <c r="H28" t="n">
-        <v>28.07714080810547</v>
+        <v>25.5493221282959</v>
       </c>
       <c r="I28" t="n">
-        <v>466.4517517089844</v>
+        <v>454.8409423828125</v>
       </c>
       <c r="J28" t="n">
-        <v>68.10125732421875</v>
+        <v>66.03594970703125</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>22.11853696692908</v>
       </c>
       <c r="G29" t="n">
-        <v>199.2966461181641</v>
+        <v>199.8736114501953</v>
       </c>
       <c r="H29" t="n">
-        <v>20.89243698120117</v>
+        <v>22.45240211486816</v>
       </c>
       <c r="I29" t="n">
-        <v>532.4876098632812</v>
+        <v>508.5268249511719</v>
       </c>
       <c r="J29" t="n">
-        <v>95.2916259765625</v>
+        <v>75.45233917236328</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>21.13587239531939</v>
       </c>
       <c r="G30" t="n">
-        <v>258.4674072265625</v>
+        <v>255.7606201171875</v>
       </c>
       <c r="H30" t="n">
-        <v>23.08263206481934</v>
+        <v>29.7011890411377</v>
       </c>
       <c r="I30" t="n">
-        <v>612.2578125</v>
+        <v>566.7166748046875</v>
       </c>
       <c r="J30" t="n">
-        <v>135.6766662597656</v>
+        <v>84.41664123535156</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>19.80061812897557</v>
       </c>
       <c r="G31" t="n">
-        <v>354.3343505859375</v>
+        <v>341.9910888671875</v>
       </c>
       <c r="H31" t="n">
-        <v>37.0806770324707</v>
+        <v>39.6508903503418</v>
       </c>
       <c r="I31" t="n">
-        <v>649.507080078125</v>
+        <v>563.5836791992188</v>
       </c>
       <c r="J31" t="n">
-        <v>195.8311614990234</v>
+        <v>111.3163757324219</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>20.55168297688286</v>
       </c>
       <c r="G32" t="n">
-        <v>222.1569061279297</v>
+        <v>180.5079956054688</v>
       </c>
       <c r="H32" t="n">
-        <v>76.75025177001953</v>
+        <v>47.90711975097656</v>
       </c>
       <c r="I32" t="n">
-        <v>27.68121528625488</v>
+        <v>39.11338424682617</v>
       </c>
       <c r="J32" t="n">
-        <v>38.54807281494141</v>
+        <v>56.80620193481445</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>22.96934284445093</v>
       </c>
       <c r="G33" t="n">
-        <v>211.6381683349609</v>
+        <v>175.4890594482422</v>
       </c>
       <c r="H33" t="n">
-        <v>67.42070007324219</v>
+        <v>44.40381622314453</v>
       </c>
       <c r="I33" t="n">
-        <v>76.13716125488281</v>
+        <v>86.07028198242188</v>
       </c>
       <c r="J33" t="n">
-        <v>39.9299430847168</v>
+        <v>59.36928939819336</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>24.40915250803127</v>
       </c>
       <c r="G34" t="n">
-        <v>202.1027984619141</v>
+        <v>171.5694427490234</v>
       </c>
       <c r="H34" t="n">
-        <v>59.41336059570312</v>
+        <v>41.45399475097656</v>
       </c>
       <c r="I34" t="n">
-        <v>125.9380874633789</v>
+        <v>133.4639282226562</v>
       </c>
       <c r="J34" t="n">
-        <v>41.45878219604492</v>
+        <v>62.65464401245117</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>26.0811880993595</v>
       </c>
       <c r="G35" t="n">
-        <v>191.8097534179688</v>
+        <v>168.8378143310547</v>
       </c>
       <c r="H35" t="n">
-        <v>49.35130310058594</v>
+        <v>37.33077621459961</v>
       </c>
       <c r="I35" t="n">
-        <v>184.0905303955078</v>
+        <v>188.4790649414062</v>
       </c>
       <c r="J35" t="n">
-        <v>45.1351203918457</v>
+        <v>67.68973541259766</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>26.87614780904968</v>
       </c>
       <c r="G36" t="n">
-        <v>182.7449188232422</v>
+        <v>168.2757568359375</v>
       </c>
       <c r="H36" t="n">
-        <v>39.25236892700195</v>
+        <v>32.61616134643555</v>
       </c>
       <c r="I36" t="n">
-        <v>264.6082763671875</v>
+        <v>262.6243591308594</v>
       </c>
       <c r="J36" t="n">
-        <v>54.07618713378906</v>
+        <v>73.70585632324219</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>27.16629873490772</v>
       </c>
       <c r="G37" t="n">
-        <v>178.1514129638672</v>
+        <v>172.20751953125</v>
       </c>
       <c r="H37" t="n">
-        <v>30.02316093444824</v>
+        <v>27.49149513244629</v>
       </c>
       <c r="I37" t="n">
-        <v>330.3598327636719</v>
+        <v>318.6857299804688</v>
       </c>
       <c r="J37" t="n">
-        <v>70.42947387695312</v>
+        <v>84.79679107666016</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>27.25598473560972</v>
       </c>
       <c r="G38" t="n">
-        <v>193.6515960693359</v>
+        <v>193.9815826416016</v>
       </c>
       <c r="H38" t="n">
-        <v>22.16452217102051</v>
+        <v>20.79179763793945</v>
       </c>
       <c r="I38" t="n">
-        <v>435.6676940917969</v>
+        <v>407.6773376464844</v>
       </c>
       <c r="J38" t="n">
-        <v>98.64384460449219</v>
+        <v>92.39799499511719</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>26.04628332899345</v>
       </c>
       <c r="G39" t="n">
-        <v>247.6672210693359</v>
+        <v>246.069580078125</v>
       </c>
       <c r="H39" t="n">
-        <v>27.13312911987305</v>
+        <v>25.21206855773926</v>
       </c>
       <c r="I39" t="n">
-        <v>532.6190795898438</v>
+        <v>468.307373046875</v>
       </c>
       <c r="J39" t="n">
-        <v>148.8473968505859</v>
+        <v>110.018310546875</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>23.96978635149335</v>
       </c>
       <c r="G40" t="n">
-        <v>352.5811462402344</v>
+        <v>342.9305419921875</v>
       </c>
       <c r="H40" t="n">
-        <v>38.93046951293945</v>
+        <v>36.15318298339844</v>
       </c>
       <c r="I40" t="n">
-        <v>628.5280151367188</v>
+        <v>525.0702514648438</v>
       </c>
       <c r="J40" t="n">
-        <v>205.4070739746094</v>
+        <v>131.8190307617188</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>25.6116837653232</v>
       </c>
       <c r="G41" t="n">
-        <v>224.4881591796875</v>
+        <v>185.1644134521484</v>
       </c>
       <c r="H41" t="n">
-        <v>71.87557220458984</v>
+        <v>44.89763641357422</v>
       </c>
       <c r="I41" t="n">
-        <v>-56.98077392578125</v>
+        <v>-40.5634880065918</v>
       </c>
       <c r="J41" t="n">
-        <v>44.54655456542969</v>
+        <v>58.64562606811523</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>28.41067839248494</v>
       </c>
       <c r="G42" t="n">
-        <v>215.6154022216797</v>
+        <v>181.3453979492188</v>
       </c>
       <c r="H42" t="n">
-        <v>62.98865127563477</v>
+        <v>41.4025993347168</v>
       </c>
       <c r="I42" t="n">
-        <v>-30.08681488037109</v>
+        <v>-13.12041854858398</v>
       </c>
       <c r="J42" t="n">
-        <v>45.6499137878418</v>
+        <v>61.92857360839844</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>30.68040031937237</v>
       </c>
       <c r="G43" t="n">
-        <v>206.6588287353516</v>
+        <v>177.9532623291016</v>
       </c>
       <c r="H43" t="n">
-        <v>54.80115509033203</v>
+        <v>38.34653854370117</v>
       </c>
       <c r="I43" t="n">
-        <v>2.218602418899536</v>
+        <v>17.6743221282959</v>
       </c>
       <c r="J43" t="n">
-        <v>46.06858062744141</v>
+        <v>66.55155181884766</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>32.34762367758118</v>
       </c>
       <c r="G44" t="n">
-        <v>196.9839019775391</v>
+        <v>174.9749603271484</v>
       </c>
       <c r="H44" t="n">
-        <v>45.74175643920898</v>
+        <v>34.85567474365234</v>
       </c>
       <c r="I44" t="n">
-        <v>54.60836791992188</v>
+        <v>66.85155487060547</v>
       </c>
       <c r="J44" t="n">
-        <v>47.12392044067383</v>
+        <v>72.52455139160156</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>33.26712421235609</v>
       </c>
       <c r="G45" t="n">
-        <v>187.4598236083984</v>
+        <v>173.1154937744141</v>
       </c>
       <c r="H45" t="n">
-        <v>36.90853118896484</v>
+        <v>31.29862022399902</v>
       </c>
       <c r="I45" t="n">
-        <v>115.4074630737305</v>
+        <v>120.9075393676758</v>
       </c>
       <c r="J45" t="n">
-        <v>52.71662521362305</v>
+        <v>82.07020568847656</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>33.39925272231932</v>
       </c>
       <c r="G46" t="n">
-        <v>181.7455291748047</v>
+        <v>176.1143341064453</v>
       </c>
       <c r="H46" t="n">
-        <v>28.1193733215332</v>
+        <v>26.41291618347168</v>
       </c>
       <c r="I46" t="n">
-        <v>217.9621734619141</v>
+        <v>207.4526519775391</v>
       </c>
       <c r="J46" t="n">
-        <v>70.64079284667969</v>
+        <v>94.79541778564453</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>32.83385481517335</v>
       </c>
       <c r="G47" t="n">
-        <v>190.0430297851562</v>
+        <v>190.3532867431641</v>
       </c>
       <c r="H47" t="n">
-        <v>23.55493545532227</v>
+        <v>21.27886009216309</v>
       </c>
       <c r="I47" t="n">
-        <v>318.1062927246094</v>
+        <v>285.8271484375</v>
       </c>
       <c r="J47" t="n">
-        <v>98.09908294677734</v>
+        <v>107.6361389160156</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>31.22587875804939</v>
       </c>
       <c r="G48" t="n">
-        <v>247.3900909423828</v>
+        <v>246.9362945556641</v>
       </c>
       <c r="H48" t="n">
-        <v>29.9845085144043</v>
+        <v>23.1910514831543</v>
       </c>
       <c r="I48" t="n">
-        <v>476.5118713378906</v>
+        <v>398.9007263183594</v>
       </c>
       <c r="J48" t="n">
-        <v>155.0190277099609</v>
+        <v>126.8522491455078</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>28.00050845971687</v>
       </c>
       <c r="G49" t="n">
-        <v>347.18310546875</v>
+        <v>340.6984558105469</v>
       </c>
       <c r="H49" t="n">
-        <v>42.95256042480469</v>
+        <v>34.26849365234375</v>
       </c>
       <c r="I49" t="n">
-        <v>598.6697387695312</v>
+        <v>475.4129943847656</v>
       </c>
       <c r="J49" t="n">
-        <v>215.68212890625</v>
+        <v>153.1605834960938</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>32.75859992753161</v>
       </c>
       <c r="G50" t="n">
-        <v>224.2589263916016</v>
+        <v>189.6768341064453</v>
       </c>
       <c r="H50" t="n">
-        <v>61.72782516479492</v>
+        <v>39.364990234375</v>
       </c>
       <c r="I50" t="n">
-        <v>-135.7673492431641</v>
+        <v>-113.4316024780273</v>
       </c>
       <c r="J50" t="n">
-        <v>53.98937606811523</v>
+        <v>57.24650955200195</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>35.60454595063857</v>
       </c>
       <c r="G51" t="n">
-        <v>217.723388671875</v>
+        <v>187.6843719482422</v>
       </c>
       <c r="H51" t="n">
-        <v>53.84089279174805</v>
+        <v>36.09713363647461</v>
       </c>
       <c r="I51" t="n">
-        <v>-122.2212448120117</v>
+        <v>-98.68865203857422</v>
       </c>
       <c r="J51" t="n">
-        <v>54.94877624511719</v>
+        <v>59.76432418823242</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>38.13811789539464</v>
       </c>
       <c r="G52" t="n">
-        <v>211.5847930908203</v>
+        <v>186.4139556884766</v>
       </c>
       <c r="H52" t="n">
-        <v>46.31014633178711</v>
+        <v>33.04745483398438</v>
       </c>
       <c r="I52" t="n">
-        <v>-111.3474502563477</v>
+        <v>-87.25446319580078</v>
       </c>
       <c r="J52" t="n">
-        <v>55.58839797973633</v>
+        <v>63.12389373779297</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>39.1380055059179</v>
       </c>
       <c r="G53" t="n">
-        <v>203.24853515625</v>
+        <v>183.3883056640625</v>
       </c>
       <c r="H53" t="n">
-        <v>39.80622482299805</v>
+        <v>30.90555572509766</v>
       </c>
       <c r="I53" t="n">
-        <v>-70.21887969970703</v>
+        <v>-49.50800704956055</v>
       </c>
       <c r="J53" t="n">
-        <v>54.15029525756836</v>
+        <v>70.17591094970703</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>40.17007780104868</v>
       </c>
       <c r="G54" t="n">
-        <v>193.9636688232422</v>
+        <v>181.4389038085938</v>
       </c>
       <c r="H54" t="n">
-        <v>31.71689033508301</v>
+        <v>27.95962524414062</v>
       </c>
       <c r="I54" t="n">
-        <v>-8.776097297668457</v>
+        <v>3.477715253829956</v>
       </c>
       <c r="J54" t="n">
-        <v>55.36005783081055</v>
+        <v>81.66444396972656</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>40.31777520333784</v>
       </c>
       <c r="G55" t="n">
-        <v>188.1345062255859</v>
+        <v>182.9240112304688</v>
       </c>
       <c r="H55" t="n">
-        <v>25.26220893859863</v>
+        <v>24.85315132141113</v>
       </c>
       <c r="I55" t="n">
-        <v>72.94483184814453</v>
+        <v>69.52662658691406</v>
       </c>
       <c r="J55" t="n">
-        <v>65.24456024169922</v>
+        <v>96.58987426757812</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>38.89328689858721</v>
       </c>
       <c r="G56" t="n">
-        <v>193.9508056640625</v>
+        <v>194.951904296875</v>
       </c>
       <c r="H56" t="n">
-        <v>23.46396827697754</v>
+        <v>21.03976058959961</v>
       </c>
       <c r="I56" t="n">
-        <v>215.0955200195312</v>
+        <v>179.7491302490234</v>
       </c>
       <c r="J56" t="n">
-        <v>96.25949859619141</v>
+        <v>115.7108993530273</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>36.03490394546852</v>
       </c>
       <c r="G57" t="n">
-        <v>238.6641235351562</v>
+        <v>239.9071044921875</v>
       </c>
       <c r="H57" t="n">
-        <v>30.45983505249023</v>
+        <v>21.68369102478027</v>
       </c>
       <c r="I57" t="n">
-        <v>401.6144714355469</v>
+        <v>320.1790466308594</v>
       </c>
       <c r="J57" t="n">
-        <v>150.1779327392578</v>
+        <v>135.5656433105469</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>33.0417017672229</v>
       </c>
       <c r="G58" t="n">
-        <v>335.6391906738281</v>
+        <v>331.5381164550781</v>
       </c>
       <c r="H58" t="n">
-        <v>44.91888809204102</v>
+        <v>33.0081672668457</v>
       </c>
       <c r="I58" t="n">
-        <v>552.6676025390625</v>
+        <v>414.3940124511719</v>
       </c>
       <c r="J58" t="n">
-        <v>219.0863037109375</v>
+        <v>169.0468292236328</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>43.98768298598323</v>
       </c>
       <c r="G59" t="n">
-        <v>221.0567169189453</v>
+        <v>196.5460205078125</v>
       </c>
       <c r="H59" t="n">
-        <v>42.63507080078125</v>
+        <v>29.7872142791748</v>
       </c>
       <c r="I59" t="n">
-        <v>-217.1503448486328</v>
+        <v>-188.5564727783203</v>
       </c>
       <c r="J59" t="n">
-        <v>62.49542236328125</v>
+        <v>53.51786804199219</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>45.7006317110727</v>
       </c>
       <c r="G60" t="n">
-        <v>215.9123382568359</v>
+        <v>195.4332275390625</v>
       </c>
       <c r="H60" t="n">
-        <v>37.18258666992188</v>
+        <v>27.82710838317871</v>
       </c>
       <c r="I60" t="n">
-        <v>-203.4395751953125</v>
+        <v>-175.6154327392578</v>
       </c>
       <c r="J60" t="n">
-        <v>62.16193389892578</v>
+        <v>57.26066970825195</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>46.67965674781412</v>
       </c>
       <c r="G61" t="n">
-        <v>209.1865234375</v>
+        <v>193.433349609375</v>
       </c>
       <c r="H61" t="n">
-        <v>31.52176094055176</v>
+        <v>26.02495574951172</v>
       </c>
       <c r="I61" t="n">
-        <v>-165.7923126220703</v>
+        <v>-141.20068359375</v>
       </c>
       <c r="J61" t="n">
-        <v>60.52250671386719</v>
+        <v>64.32083129882812</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>47.53914448671719</v>
       </c>
       <c r="G62" t="n">
-        <v>203.4748382568359</v>
+        <v>192.8480834960938</v>
       </c>
       <c r="H62" t="n">
-        <v>25.99297714233398</v>
+        <v>24.15559768676758</v>
       </c>
       <c r="I62" t="n">
-        <v>-124.1312789916992</v>
+        <v>-105.1902465820312</v>
       </c>
       <c r="J62" t="n">
-        <v>59.32256698608398</v>
+        <v>72.96104431152344</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>47.07121651777462</v>
       </c>
       <c r="G63" t="n">
-        <v>196.7495269775391</v>
+        <v>193.1200103759766</v>
       </c>
       <c r="H63" t="n">
-        <v>21.558837890625</v>
+        <v>22.56889343261719</v>
       </c>
       <c r="I63" t="n">
-        <v>-39.50600051879883</v>
+        <v>-38.27084350585938</v>
       </c>
       <c r="J63" t="n">
-        <v>63.9018440246582</v>
+        <v>91.89077758789062</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>45.67156598130153</v>
       </c>
       <c r="G64" t="n">
-        <v>201.42626953125</v>
+        <v>203.207275390625</v>
       </c>
       <c r="H64" t="n">
-        <v>21.4334831237793</v>
+        <v>20.44327926635742</v>
       </c>
       <c r="I64" t="n">
-        <v>101.441047668457</v>
+        <v>72.70107269287109</v>
       </c>
       <c r="J64" t="n">
-        <v>85.93743133544922</v>
+        <v>112.5377502441406</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>42.51104340916319</v>
       </c>
       <c r="G65" t="n">
-        <v>233.7644805908203</v>
+        <v>236.806640625</v>
       </c>
       <c r="H65" t="n">
-        <v>30.35222244262695</v>
+        <v>22.06039619445801</v>
       </c>
       <c r="I65" t="n">
-        <v>285.90234375</v>
+        <v>202.1040649414062</v>
       </c>
       <c r="J65" t="n">
-        <v>141.0836791992188</v>
+        <v>141.9952850341797</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>54.37577254606605</v>
       </c>
       <c r="G66" t="n">
-        <v>222.9918060302734</v>
+        <v>208.3853607177734</v>
       </c>
       <c r="H66" t="n">
-        <v>26.90482521057129</v>
+        <v>22.37119483947754</v>
       </c>
       <c r="I66" t="n">
-        <v>-283.7195129394531</v>
+        <v>-254.3299407958984</v>
       </c>
       <c r="J66" t="n">
-        <v>62.44182586669922</v>
+        <v>48.22364807128906</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>55.07062752917076</v>
       </c>
       <c r="G67" t="n">
-        <v>218.2139282226562</v>
+        <v>207.3436279296875</v>
       </c>
       <c r="H67" t="n">
-        <v>23.19878959655762</v>
+        <v>21.46236038208008</v>
       </c>
       <c r="I67" t="n">
-        <v>-255.7786407470703</v>
+        <v>-229.6848602294922</v>
       </c>
       <c r="J67" t="n">
-        <v>61.79457092285156</v>
+        <v>54.65819549560547</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>54.82432856758766</v>
       </c>
       <c r="G68" t="n">
-        <v>212.5341339111328</v>
+        <v>205.7682495117188</v>
       </c>
       <c r="H68" t="n">
-        <v>20.07708168029785</v>
+        <v>20.91900444030762</v>
       </c>
       <c r="I68" t="n">
-        <v>-213.0209503173828</v>
+        <v>-193.0199737548828</v>
       </c>
       <c r="J68" t="n">
-        <v>60.98181533813477</v>
+        <v>64.88190460205078</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>54.18769809434324</v>
       </c>
       <c r="G69" t="n">
-        <v>208.2297515869141</v>
+        <v>206.4842987060547</v>
       </c>
       <c r="H69" t="n">
-        <v>18.00494575500488</v>
+        <v>20.44129753112793</v>
       </c>
       <c r="I69" t="n">
-        <v>-135.1610565185547</v>
+        <v>-129.6396484375</v>
       </c>
       <c r="J69" t="n">
-        <v>62.02645874023438</v>
+        <v>81.42447662353516</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>51.347187815424</v>
       </c>
       <c r="G70" t="n">
-        <v>208.0628509521484</v>
+        <v>210.7485809326172</v>
       </c>
       <c r="H70" t="n">
-        <v>20.41637802124023</v>
+        <v>20.63101959228516</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.7714831233024597</v>
+        <v>-25.20581817626953</v>
       </c>
       <c r="J70" t="n">
-        <v>78.30635070800781</v>
+        <v>106.9445648193359</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_XAI_NoEng_swish.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_XAI_NoEng_swish.xlsx
@@ -505,16 +505,16 @@
         <v>10.27148578895017</v>
       </c>
       <c r="G2" t="n">
-        <v>197.7309112548828</v>
+        <v>242.66455078125</v>
       </c>
       <c r="H2" t="n">
-        <v>40.01806259155273</v>
+        <v>49.45950698852539</v>
       </c>
       <c r="I2" t="n">
-        <v>660.4866333007812</v>
+        <v>541.1533813476562</v>
       </c>
       <c r="J2" t="n">
-        <v>29.02350425720215</v>
+        <v>78.69298553466797</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>10.49540628405087</v>
       </c>
       <c r="G3" t="n">
-        <v>215.1867065429688</v>
+        <v>248.2365264892578</v>
       </c>
       <c r="H3" t="n">
-        <v>43.54281616210938</v>
+        <v>46.97449493408203</v>
       </c>
       <c r="I3" t="n">
-        <v>711.52001953125</v>
+        <v>577.2227172851562</v>
       </c>
       <c r="J3" t="n">
-        <v>32.6512565612793</v>
+        <v>93.13663482666016</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>11.11292799977388</v>
       </c>
       <c r="G4" t="n">
-        <v>229.0365753173828</v>
+        <v>256.4594116210938</v>
       </c>
       <c r="H4" t="n">
-        <v>43.42191314697266</v>
+        <v>40.67238998413086</v>
       </c>
       <c r="I4" t="n">
-        <v>736.962890625</v>
+        <v>622.495849609375</v>
       </c>
       <c r="J4" t="n">
-        <v>35.94400405883789</v>
+        <v>115.5147476196289</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>11.33579528302992</v>
       </c>
       <c r="G5" t="n">
-        <v>248.28466796875</v>
+        <v>271.7597961425781</v>
       </c>
       <c r="H5" t="n">
-        <v>43.86650848388672</v>
+        <v>38.83144760131836</v>
       </c>
       <c r="I5" t="n">
-        <v>756.2783813476562</v>
+        <v>670.3638305664062</v>
       </c>
       <c r="J5" t="n">
-        <v>40.26661682128906</v>
+        <v>145.9395751953125</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>11.53221857575777</v>
       </c>
       <c r="G6" t="n">
-        <v>268.6750793457031</v>
+        <v>285.1529846191406</v>
       </c>
       <c r="H6" t="n">
-        <v>43.37819671630859</v>
+        <v>45.33271026611328</v>
       </c>
       <c r="I6" t="n">
-        <v>754.0162963867188</v>
+        <v>692.3395385742188</v>
       </c>
       <c r="J6" t="n">
-        <v>43.74077606201172</v>
+        <v>172.3567352294922</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>11.73836346032553</v>
       </c>
       <c r="G7" t="n">
-        <v>169.3572387695312</v>
+        <v>278.5018310546875</v>
       </c>
       <c r="H7" t="n">
-        <v>40.50752258300781</v>
+        <v>33.54511642456055</v>
       </c>
       <c r="I7" t="n">
-        <v>464.0035400390625</v>
+        <v>518.6476440429688</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4653205871582</v>
+        <v>56.34943771362305</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>12.47588443056982</v>
       </c>
       <c r="G8" t="n">
-        <v>174.5661163330078</v>
+        <v>263.9310302734375</v>
       </c>
       <c r="H8" t="n">
-        <v>36.08069610595703</v>
+        <v>31.46952819824219</v>
       </c>
       <c r="I8" t="n">
-        <v>531.6930541992188</v>
+        <v>554.6635131835938</v>
       </c>
       <c r="J8" t="n">
-        <v>27.28792190551758</v>
+        <v>68.92312622070312</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>13.31360035996819</v>
       </c>
       <c r="G9" t="n">
-        <v>183.2216644287109</v>
+        <v>252.7758331298828</v>
       </c>
       <c r="H9" t="n">
-        <v>32.65544891357422</v>
+        <v>33.22032928466797</v>
       </c>
       <c r="I9" t="n">
-        <v>593.8458251953125</v>
+        <v>570.461669921875</v>
       </c>
       <c r="J9" t="n">
-        <v>30.13705825805664</v>
+        <v>82.92698669433594</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>14.04586286313179</v>
       </c>
       <c r="G10" t="n">
-        <v>195.0855560302734</v>
+        <v>246.9534912109375</v>
       </c>
       <c r="H10" t="n">
-        <v>29.85960006713867</v>
+        <v>39.89186859130859</v>
       </c>
       <c r="I10" t="n">
-        <v>636.8699340820312</v>
+        <v>589.2340698242188</v>
       </c>
       <c r="J10" t="n">
-        <v>34.41506195068359</v>
+        <v>105.1418151855469</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>14.78596965177877</v>
       </c>
       <c r="G11" t="n">
-        <v>214.2283325195312</v>
+        <v>246.2944488525391</v>
       </c>
       <c r="H11" t="n">
-        <v>29.99617004394531</v>
+        <v>46.15816497802734</v>
       </c>
       <c r="I11" t="n">
-        <v>676.4918823242188</v>
+        <v>623.820556640625</v>
       </c>
       <c r="J11" t="n">
-        <v>39.38330841064453</v>
+        <v>130.0683441162109</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>14.60750023008277</v>
       </c>
       <c r="G12" t="n">
-        <v>236.1377105712891</v>
+        <v>250.4209747314453</v>
       </c>
       <c r="H12" t="n">
-        <v>32.5367317199707</v>
+        <v>40.91560745239258</v>
       </c>
       <c r="I12" t="n">
-        <v>686.3414916992188</v>
+        <v>654.4754028320312</v>
       </c>
       <c r="J12" t="n">
-        <v>43.99849700927734</v>
+        <v>163.8999786376953</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>13.93632017907879</v>
       </c>
       <c r="G13" t="n">
-        <v>280.884765625</v>
+        <v>265.7132568359375</v>
       </c>
       <c r="H13" t="n">
-        <v>41.09183120727539</v>
+        <v>29.80135154724121</v>
       </c>
       <c r="I13" t="n">
-        <v>690.33935546875</v>
+        <v>677.098388671875</v>
       </c>
       <c r="J13" t="n">
-        <v>49.96541595458984</v>
+        <v>186.4854888916016</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>13.2060787967079</v>
       </c>
       <c r="G14" t="n">
-        <v>170.8653106689453</v>
+        <v>318.3159484863281</v>
       </c>
       <c r="H14" t="n">
-        <v>48.95794677734375</v>
+        <v>66.42387390136719</v>
       </c>
       <c r="I14" t="n">
-        <v>235.0804290771484</v>
+        <v>220.3453369140625</v>
       </c>
       <c r="J14" t="n">
-        <v>40.92119216918945</v>
+        <v>53.78925704956055</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>14.43724685121477</v>
       </c>
       <c r="G15" t="n">
-        <v>167.4610748291016</v>
+        <v>310.185302734375</v>
       </c>
       <c r="H15" t="n">
-        <v>44.64936828613281</v>
+        <v>53.58562088012695</v>
       </c>
       <c r="I15" t="n">
-        <v>315.2296752929688</v>
+        <v>340.1846618652344</v>
       </c>
       <c r="J15" t="n">
-        <v>38.59541320800781</v>
+        <v>53.49123001098633</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>15.77509757365795</v>
       </c>
       <c r="G16" t="n">
-        <v>167.1064300537109</v>
+        <v>297.1203918457031</v>
       </c>
       <c r="H16" t="n">
-        <v>39.64257431030273</v>
+        <v>40.53020858764648</v>
       </c>
       <c r="I16" t="n">
-        <v>388.2242431640625</v>
+        <v>441.7789611816406</v>
       </c>
       <c r="J16" t="n">
-        <v>37.967529296875</v>
+        <v>54.90614318847656</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>17.01643502058164</v>
       </c>
       <c r="G17" t="n">
-        <v>170.3897705078125</v>
+        <v>281.6865844726562</v>
       </c>
       <c r="H17" t="n">
-        <v>33.50944519042969</v>
+        <v>31.38378715515137</v>
       </c>
       <c r="I17" t="n">
-        <v>469.7760925292969</v>
+        <v>533.6898193359375</v>
       </c>
       <c r="J17" t="n">
-        <v>39.72177886962891</v>
+        <v>64.59474945068359</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>17.57324774662381</v>
       </c>
       <c r="G18" t="n">
-        <v>175.0790252685547</v>
+        <v>274.7966613769531</v>
       </c>
       <c r="H18" t="n">
-        <v>29.47323226928711</v>
+        <v>28.75798606872559</v>
       </c>
       <c r="I18" t="n">
-        <v>511.8874206542969</v>
+        <v>572.2900390625</v>
       </c>
       <c r="J18" t="n">
-        <v>42.99642562866211</v>
+        <v>88.36852264404297</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>18.2282289394109</v>
       </c>
       <c r="G19" t="n">
-        <v>190.6531982421875</v>
+        <v>259.891357421875</v>
       </c>
       <c r="H19" t="n">
-        <v>24.68264007568359</v>
+        <v>23.46456718444824</v>
       </c>
       <c r="I19" t="n">
-        <v>573.3204345703125</v>
+        <v>626.9089965820312</v>
       </c>
       <c r="J19" t="n">
-        <v>49.64289093017578</v>
+        <v>141.0009460449219</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>18.05168677518481</v>
       </c>
       <c r="G20" t="n">
-        <v>211.9327239990234</v>
+        <v>248.4729461669922</v>
       </c>
       <c r="H20" t="n">
-        <v>25.50544548034668</v>
+        <v>24.77627372741699</v>
       </c>
       <c r="I20" t="n">
-        <v>599.1485595703125</v>
+        <v>660.7486572265625</v>
       </c>
       <c r="J20" t="n">
-        <v>56.44349670410156</v>
+        <v>180.1862335205078</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>17.30316829702608</v>
       </c>
       <c r="G21" t="n">
-        <v>258.2533874511719</v>
+        <v>244.5302734375</v>
       </c>
       <c r="H21" t="n">
-        <v>33.91220474243164</v>
+        <v>24.11511993408203</v>
       </c>
       <c r="I21" t="n">
-        <v>618.2099609375</v>
+        <v>686.4381713867188</v>
       </c>
       <c r="J21" t="n">
-        <v>64.78905487060547</v>
+        <v>204.3944244384766</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>15.87142913305469</v>
       </c>
       <c r="G22" t="n">
-        <v>343.5586853027344</v>
+        <v>351.3784484863281</v>
       </c>
       <c r="H22" t="n">
-        <v>45.1806755065918</v>
+        <v>56.17662811279297</v>
       </c>
       <c r="I22" t="n">
-        <v>623.6533813476562</v>
+        <v>651.1043701171875</v>
       </c>
       <c r="J22" t="n">
-        <v>82.39170837402344</v>
+        <v>200.4123229980469</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>16.2842163689804</v>
       </c>
       <c r="G23" t="n">
-        <v>175.5448608398438</v>
+        <v>329.7198791503906</v>
       </c>
       <c r="H23" t="n">
-        <v>49.35330581665039</v>
+        <v>61.8546142578125</v>
       </c>
       <c r="I23" t="n">
-        <v>130.6399383544922</v>
+        <v>88.98319244384766</v>
       </c>
       <c r="J23" t="n">
-        <v>50.89671325683594</v>
+        <v>57.84934616088867</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>17.99859633271077</v>
       </c>
       <c r="G24" t="n">
-        <v>171.1555023193359</v>
+        <v>321.6933288574219</v>
       </c>
       <c r="H24" t="n">
-        <v>45.90435409545898</v>
+        <v>65.2940673828125</v>
       </c>
       <c r="I24" t="n">
-        <v>196.1012115478516</v>
+        <v>177.500732421875</v>
       </c>
       <c r="J24" t="n">
-        <v>49.62169647216797</v>
+        <v>61.41255569458008</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>19.53665474474453</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7763214111328</v>
+        <v>313.9307556152344</v>
       </c>
       <c r="H25" t="n">
-        <v>42.03106689453125</v>
+        <v>59.87533950805664</v>
       </c>
       <c r="I25" t="n">
-        <v>252.0361175537109</v>
+        <v>260.2620544433594</v>
       </c>
       <c r="J25" t="n">
-        <v>52.00088882446289</v>
+        <v>63.01090240478516</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>21.18080958029204</v>
       </c>
       <c r="G26" t="n">
-        <v>166.4980773925781</v>
+        <v>303.8649291992188</v>
       </c>
       <c r="H26" t="n">
-        <v>37.03203964233398</v>
+        <v>49.08153915405273</v>
       </c>
       <c r="I26" t="n">
-        <v>317.529541015625</v>
+        <v>364.24267578125</v>
       </c>
       <c r="J26" t="n">
-        <v>55.39272689819336</v>
+        <v>60.63920211791992</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>22.36133238808863</v>
       </c>
       <c r="G27" t="n">
-        <v>169.6369476318359</v>
+        <v>288.7174377441406</v>
       </c>
       <c r="H27" t="n">
-        <v>30.57095909118652</v>
+        <v>39.3067741394043</v>
       </c>
       <c r="I27" t="n">
-        <v>395.6465759277344</v>
+        <v>484.9693603515625</v>
       </c>
       <c r="J27" t="n">
-        <v>59.85556411743164</v>
+        <v>75.60392761230469</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>22.25528267810615</v>
       </c>
       <c r="G28" t="n">
-        <v>177.2487335205078</v>
+        <v>275.6024780273438</v>
       </c>
       <c r="H28" t="n">
-        <v>25.5493221282959</v>
+        <v>36.70656204223633</v>
       </c>
       <c r="I28" t="n">
-        <v>454.8409423828125</v>
+        <v>563.7495727539062</v>
       </c>
       <c r="J28" t="n">
-        <v>66.03594970703125</v>
+        <v>110.2880096435547</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>22.11853696692908</v>
       </c>
       <c r="G29" t="n">
-        <v>199.8736114501953</v>
+        <v>261.2682495117188</v>
       </c>
       <c r="H29" t="n">
-        <v>22.45240211486816</v>
+        <v>38.3227653503418</v>
       </c>
       <c r="I29" t="n">
-        <v>508.5268249511719</v>
+        <v>626.7415771484375</v>
       </c>
       <c r="J29" t="n">
-        <v>75.45233917236328</v>
+        <v>158.0622711181641</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>21.13587239531939</v>
       </c>
       <c r="G30" t="n">
-        <v>255.7606201171875</v>
+        <v>279.0865783691406</v>
       </c>
       <c r="H30" t="n">
-        <v>29.7011890411377</v>
+        <v>47.60736846923828</v>
       </c>
       <c r="I30" t="n">
-        <v>566.7166748046875</v>
+        <v>662.5916748046875</v>
       </c>
       <c r="J30" t="n">
-        <v>84.41664123535156</v>
+        <v>188.7667388916016</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>19.80061812897557</v>
       </c>
       <c r="G31" t="n">
-        <v>341.9910888671875</v>
+        <v>349.8853454589844</v>
       </c>
       <c r="H31" t="n">
-        <v>39.6508903503418</v>
+        <v>56.039794921875</v>
       </c>
       <c r="I31" t="n">
-        <v>563.5836791992188</v>
+        <v>606.2457885742188</v>
       </c>
       <c r="J31" t="n">
-        <v>111.3163757324219</v>
+        <v>203.1439666748047</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>20.55168297688286</v>
       </c>
       <c r="G32" t="n">
-        <v>180.5079956054688</v>
+        <v>343.4945068359375</v>
       </c>
       <c r="H32" t="n">
-        <v>47.90711975097656</v>
+        <v>69.62876129150391</v>
       </c>
       <c r="I32" t="n">
-        <v>39.11338424682617</v>
+        <v>21.59539031982422</v>
       </c>
       <c r="J32" t="n">
-        <v>56.80620193481445</v>
+        <v>62.7235221862793</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>22.96934284445093</v>
       </c>
       <c r="G33" t="n">
-        <v>175.4890594482422</v>
+        <v>340.7089538574219</v>
       </c>
       <c r="H33" t="n">
-        <v>44.40381622314453</v>
+        <v>66.68523406982422</v>
       </c>
       <c r="I33" t="n">
-        <v>86.07028198242188</v>
+        <v>71.03656768798828</v>
       </c>
       <c r="J33" t="n">
-        <v>59.36928939819336</v>
+        <v>73.33188629150391</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>24.40915250803127</v>
       </c>
       <c r="G34" t="n">
-        <v>171.5694427490234</v>
+        <v>327.25439453125</v>
       </c>
       <c r="H34" t="n">
-        <v>41.45399475097656</v>
+        <v>65.72041320800781</v>
       </c>
       <c r="I34" t="n">
-        <v>133.4639282226562</v>
+        <v>129.5149841308594</v>
       </c>
       <c r="J34" t="n">
-        <v>62.65464401245117</v>
+        <v>78.94285583496094</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>26.0811880993595</v>
       </c>
       <c r="G35" t="n">
-        <v>168.8378143310547</v>
+        <v>312.3814086914062</v>
       </c>
       <c r="H35" t="n">
-        <v>37.33077621459961</v>
+        <v>63.56122970581055</v>
       </c>
       <c r="I35" t="n">
-        <v>188.4790649414062</v>
+        <v>212.0831756591797</v>
       </c>
       <c r="J35" t="n">
-        <v>67.68973541259766</v>
+        <v>80.84473419189453</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>26.87614780904968</v>
       </c>
       <c r="G36" t="n">
-        <v>168.2757568359375</v>
+        <v>299.36181640625</v>
       </c>
       <c r="H36" t="n">
-        <v>32.61616134643555</v>
+        <v>54.94900894165039</v>
       </c>
       <c r="I36" t="n">
-        <v>262.6243591308594</v>
+        <v>333.1081848144531</v>
       </c>
       <c r="J36" t="n">
-        <v>73.70585632324219</v>
+        <v>81.64495086669922</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>27.16629873490772</v>
       </c>
       <c r="G37" t="n">
-        <v>172.20751953125</v>
+        <v>291.3439636230469</v>
       </c>
       <c r="H37" t="n">
-        <v>27.49149513244629</v>
+        <v>61.49943542480469</v>
       </c>
       <c r="I37" t="n">
-        <v>318.6857299804688</v>
+        <v>431.78369140625</v>
       </c>
       <c r="J37" t="n">
-        <v>84.79679107666016</v>
+        <v>108.1569290161133</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>27.25598473560972</v>
       </c>
       <c r="G38" t="n">
-        <v>193.9815826416016</v>
+        <v>294.4858093261719</v>
       </c>
       <c r="H38" t="n">
-        <v>20.79179763793945</v>
+        <v>87.07186889648438</v>
       </c>
       <c r="I38" t="n">
-        <v>407.6773376464844</v>
+        <v>551.7136840820312</v>
       </c>
       <c r="J38" t="n">
-        <v>92.39799499511719</v>
+        <v>151.1710205078125</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>26.04628332899345</v>
       </c>
       <c r="G39" t="n">
-        <v>246.069580078125</v>
+        <v>327.5272521972656</v>
       </c>
       <c r="H39" t="n">
-        <v>25.21206855773926</v>
+        <v>71.36456298828125</v>
       </c>
       <c r="I39" t="n">
-        <v>468.307373046875</v>
+        <v>589.4949340820312</v>
       </c>
       <c r="J39" t="n">
-        <v>110.018310546875</v>
+        <v>187.6634674072266</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>23.96978635149335</v>
       </c>
       <c r="G40" t="n">
-        <v>342.9305419921875</v>
+        <v>355.8050537109375</v>
       </c>
       <c r="H40" t="n">
-        <v>36.15318298339844</v>
+        <v>65.66741943359375</v>
       </c>
       <c r="I40" t="n">
-        <v>525.0702514648438</v>
+        <v>566.678466796875</v>
       </c>
       <c r="J40" t="n">
-        <v>131.8190307617188</v>
+        <v>191.6405029296875</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>25.6116837653232</v>
       </c>
       <c r="G41" t="n">
-        <v>185.1644134521484</v>
+        <v>349.7806396484375</v>
       </c>
       <c r="H41" t="n">
-        <v>44.89763641357422</v>
+        <v>83.44766998291016</v>
       </c>
       <c r="I41" t="n">
-        <v>-40.5634880065918</v>
+        <v>-9.459052085876465</v>
       </c>
       <c r="J41" t="n">
-        <v>58.64562606811523</v>
+        <v>68.57002258300781</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>28.41067839248494</v>
       </c>
       <c r="G42" t="n">
-        <v>181.3453979492188</v>
+        <v>353.0466613769531</v>
       </c>
       <c r="H42" t="n">
-        <v>41.4025993347168</v>
+        <v>86.76160430908203</v>
       </c>
       <c r="I42" t="n">
-        <v>-13.12041854858398</v>
+        <v>15.09806442260742</v>
       </c>
       <c r="J42" t="n">
-        <v>61.92857360839844</v>
+        <v>82.05820465087891</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>30.68040031937237</v>
       </c>
       <c r="G43" t="n">
-        <v>177.9532623291016</v>
+        <v>347.3250732421875</v>
       </c>
       <c r="H43" t="n">
-        <v>38.34653854370117</v>
+        <v>85.32491302490234</v>
       </c>
       <c r="I43" t="n">
-        <v>17.6743221282959</v>
+        <v>49.18069076538086</v>
       </c>
       <c r="J43" t="n">
-        <v>66.55155181884766</v>
+        <v>94.75191497802734</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>32.34762367758118</v>
       </c>
       <c r="G44" t="n">
-        <v>174.9749603271484</v>
+        <v>333.4981994628906</v>
       </c>
       <c r="H44" t="n">
-        <v>34.85567474365234</v>
+        <v>84.02866363525391</v>
       </c>
       <c r="I44" t="n">
-        <v>66.85155487060547</v>
+        <v>107.978271484375</v>
       </c>
       <c r="J44" t="n">
-        <v>72.52455139160156</v>
+        <v>103.7072143554688</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>33.26712421235609</v>
       </c>
       <c r="G45" t="n">
-        <v>173.1154937744141</v>
+        <v>316.9560852050781</v>
       </c>
       <c r="H45" t="n">
-        <v>31.29862022399902</v>
+        <v>89.16489410400391</v>
       </c>
       <c r="I45" t="n">
-        <v>120.9075393676758</v>
+        <v>188.34326171875</v>
       </c>
       <c r="J45" t="n">
-        <v>82.07020568847656</v>
+        <v>109.2467346191406</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>33.39925272231932</v>
       </c>
       <c r="G46" t="n">
-        <v>176.1143341064453</v>
+        <v>310.2789611816406</v>
       </c>
       <c r="H46" t="n">
-        <v>26.41291618347168</v>
+        <v>99.92763519287109</v>
       </c>
       <c r="I46" t="n">
-        <v>207.4526519775391</v>
+        <v>327.9687194824219</v>
       </c>
       <c r="J46" t="n">
-        <v>94.79541778564453</v>
+        <v>128.8520812988281</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>32.83385481517335</v>
       </c>
       <c r="G47" t="n">
-        <v>190.3532867431641</v>
+        <v>315.2279968261719</v>
       </c>
       <c r="H47" t="n">
-        <v>21.27886009216309</v>
+        <v>108.1681442260742</v>
       </c>
       <c r="I47" t="n">
-        <v>285.8271484375</v>
+        <v>438.459228515625</v>
       </c>
       <c r="J47" t="n">
-        <v>107.6361389160156</v>
+        <v>162.9540100097656</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>31.22587875804939</v>
       </c>
       <c r="G48" t="n">
-        <v>246.9362945556641</v>
+        <v>360.3251037597656</v>
       </c>
       <c r="H48" t="n">
-        <v>23.1910514831543</v>
+        <v>92.13973999023438</v>
       </c>
       <c r="I48" t="n">
-        <v>398.9007263183594</v>
+        <v>532.34375</v>
       </c>
       <c r="J48" t="n">
-        <v>126.8522491455078</v>
+        <v>195.3013763427734</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>28.00050845971687</v>
       </c>
       <c r="G49" t="n">
-        <v>340.6984558105469</v>
+        <v>355.1520080566406</v>
       </c>
       <c r="H49" t="n">
-        <v>34.26849365234375</v>
+        <v>71.39107513427734</v>
       </c>
       <c r="I49" t="n">
-        <v>475.4129943847656</v>
+        <v>520.6282348632812</v>
       </c>
       <c r="J49" t="n">
-        <v>153.1605834960938</v>
+        <v>190.9557189941406</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>32.75859992753161</v>
       </c>
       <c r="G50" t="n">
-        <v>189.6768341064453</v>
+        <v>354.5996398925781</v>
       </c>
       <c r="H50" t="n">
-        <v>39.364990234375</v>
+        <v>94.12010955810547</v>
       </c>
       <c r="I50" t="n">
-        <v>-113.4316024780273</v>
+        <v>-26.38310241699219</v>
       </c>
       <c r="J50" t="n">
-        <v>57.24650955200195</v>
+        <v>81.25919342041016</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>35.60454595063857</v>
       </c>
       <c r="G51" t="n">
-        <v>187.6843719482422</v>
+        <v>357.9640197753906</v>
       </c>
       <c r="H51" t="n">
-        <v>36.09713363647461</v>
+        <v>96.88271331787109</v>
       </c>
       <c r="I51" t="n">
-        <v>-98.68865203857422</v>
+        <v>-13.32019805908203</v>
       </c>
       <c r="J51" t="n">
-        <v>59.76432418823242</v>
+        <v>94.16237640380859</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>38.13811789539464</v>
       </c>
       <c r="G52" t="n">
-        <v>186.4139556884766</v>
+        <v>357</v>
       </c>
       <c r="H52" t="n">
-        <v>33.04745483398438</v>
+        <v>96.83543395996094</v>
       </c>
       <c r="I52" t="n">
-        <v>-87.25446319580078</v>
+        <v>0.1383576840162277</v>
       </c>
       <c r="J52" t="n">
-        <v>63.12389373779297</v>
+        <v>105.7158584594727</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>39.1380055059179</v>
       </c>
       <c r="G53" t="n">
-        <v>183.3883056640625</v>
+        <v>347.8915100097656</v>
       </c>
       <c r="H53" t="n">
-        <v>30.90555572509766</v>
+        <v>93.31488037109375</v>
       </c>
       <c r="I53" t="n">
-        <v>-49.50800704956055</v>
+        <v>33.76173782348633</v>
       </c>
       <c r="J53" t="n">
-        <v>70.17591094970703</v>
+        <v>115.5437927246094</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>40.17007780104868</v>
       </c>
       <c r="G54" t="n">
-        <v>181.4389038085938</v>
+        <v>330.7827453613281</v>
       </c>
       <c r="H54" t="n">
-        <v>27.95962524414062</v>
+        <v>95.20169830322266</v>
       </c>
       <c r="I54" t="n">
-        <v>3.477715253829956</v>
+        <v>96.62970733642578</v>
       </c>
       <c r="J54" t="n">
-        <v>81.66444396972656</v>
+        <v>125.0563507080078</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>40.31777520333784</v>
       </c>
       <c r="G55" t="n">
-        <v>182.9240112304688</v>
+        <v>319.3701171875</v>
       </c>
       <c r="H55" t="n">
-        <v>24.85315132141113</v>
+        <v>109.5658111572266</v>
       </c>
       <c r="I55" t="n">
-        <v>69.52662658691406</v>
+        <v>191.5596466064453</v>
       </c>
       <c r="J55" t="n">
-        <v>96.58987426757812</v>
+        <v>143.8082580566406</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>38.89328689858721</v>
       </c>
       <c r="G56" t="n">
-        <v>194.951904296875</v>
+        <v>332.8890686035156</v>
       </c>
       <c r="H56" t="n">
-        <v>21.03976058959961</v>
+        <v>115.2932815551758</v>
       </c>
       <c r="I56" t="n">
-        <v>179.7491302490234</v>
+        <v>342.954345703125</v>
       </c>
       <c r="J56" t="n">
-        <v>115.7108993530273</v>
+        <v>179.2789154052734</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>36.03490394546852</v>
       </c>
       <c r="G57" t="n">
-        <v>239.9071044921875</v>
+        <v>370.1943054199219</v>
       </c>
       <c r="H57" t="n">
-        <v>21.68369102478027</v>
+        <v>104.6988220214844</v>
       </c>
       <c r="I57" t="n">
-        <v>320.1790466308594</v>
+        <v>473.9483947753906</v>
       </c>
       <c r="J57" t="n">
-        <v>135.5656433105469</v>
+        <v>205.7085266113281</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>33.0417017672229</v>
       </c>
       <c r="G58" t="n">
-        <v>331.5381164550781</v>
+        <v>356.4498596191406</v>
       </c>
       <c r="H58" t="n">
-        <v>33.0081672668457</v>
+        <v>78.55998992919922</v>
       </c>
       <c r="I58" t="n">
-        <v>414.3940124511719</v>
+        <v>482.9431457519531</v>
       </c>
       <c r="J58" t="n">
-        <v>169.0468292236328</v>
+        <v>204.8838043212891</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>43.98768298598323</v>
       </c>
       <c r="G59" t="n">
-        <v>196.5460205078125</v>
+        <v>365.7543029785156</v>
       </c>
       <c r="H59" t="n">
-        <v>29.7872142791748</v>
+        <v>98.18580627441406</v>
       </c>
       <c r="I59" t="n">
-        <v>-188.5564727783203</v>
+        <v>-50.69868469238281</v>
       </c>
       <c r="J59" t="n">
-        <v>53.51786804199219</v>
+        <v>102.2188034057617</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>45.7006317110727</v>
       </c>
       <c r="G60" t="n">
-        <v>195.4332275390625</v>
+        <v>364.2367248535156</v>
       </c>
       <c r="H60" t="n">
-        <v>27.82710838317871</v>
+        <v>99.64735412597656</v>
       </c>
       <c r="I60" t="n">
-        <v>-175.6154327392578</v>
+        <v>-43.08942794799805</v>
       </c>
       <c r="J60" t="n">
-        <v>57.26066970825195</v>
+        <v>108.4789733886719</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>46.67965674781412</v>
       </c>
       <c r="G61" t="n">
-        <v>193.433349609375</v>
+        <v>359.1209716796875</v>
       </c>
       <c r="H61" t="n">
-        <v>26.02495574951172</v>
+        <v>101.1649169921875</v>
       </c>
       <c r="I61" t="n">
-        <v>-141.20068359375</v>
+        <v>-19.35847854614258</v>
       </c>
       <c r="J61" t="n">
-        <v>64.32083129882812</v>
+        <v>116.2944030761719</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>47.53914448671719</v>
       </c>
       <c r="G62" t="n">
-        <v>192.8480834960938</v>
+        <v>349.3146667480469</v>
       </c>
       <c r="H62" t="n">
-        <v>24.15559768676758</v>
+        <v>104.7003021240234</v>
       </c>
       <c r="I62" t="n">
-        <v>-105.1902465820312</v>
+        <v>12.60116577148438</v>
       </c>
       <c r="J62" t="n">
-        <v>72.96104431152344</v>
+        <v>124.3123779296875</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>47.07121651777462</v>
       </c>
       <c r="G63" t="n">
-        <v>193.1200103759766</v>
+        <v>332.5464172363281</v>
       </c>
       <c r="H63" t="n">
-        <v>22.56889343261719</v>
+        <v>116.2602844238281</v>
       </c>
       <c r="I63" t="n">
-        <v>-38.27084350585938</v>
+        <v>93.87557220458984</v>
       </c>
       <c r="J63" t="n">
-        <v>91.89077758789062</v>
+        <v>147.1896820068359</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>45.67156598130153</v>
       </c>
       <c r="G64" t="n">
-        <v>203.207275390625</v>
+        <v>344.9425354003906</v>
       </c>
       <c r="H64" t="n">
-        <v>20.44327926635742</v>
+        <v>122.8225631713867</v>
       </c>
       <c r="I64" t="n">
-        <v>72.70107269287109</v>
+        <v>241.2750244140625</v>
       </c>
       <c r="J64" t="n">
-        <v>112.5377502441406</v>
+        <v>188.0890197753906</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>42.51104340916319</v>
       </c>
       <c r="G65" t="n">
-        <v>236.806640625</v>
+        <v>367.4535217285156</v>
       </c>
       <c r="H65" t="n">
-        <v>22.06039619445801</v>
+        <v>112.478630065918</v>
       </c>
       <c r="I65" t="n">
-        <v>202.1040649414062</v>
+        <v>380.635009765625</v>
       </c>
       <c r="J65" t="n">
-        <v>141.9952850341797</v>
+        <v>228.9067840576172</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>54.37577254606605</v>
       </c>
       <c r="G66" t="n">
-        <v>208.3853607177734</v>
+        <v>380.2615051269531</v>
       </c>
       <c r="H66" t="n">
-        <v>22.37119483947754</v>
+        <v>108.099983215332</v>
       </c>
       <c r="I66" t="n">
-        <v>-254.3299407958984</v>
+        <v>-109.3929824829102</v>
       </c>
       <c r="J66" t="n">
-        <v>48.22364807128906</v>
+        <v>104.8703994750977</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>55.07062752917076</v>
       </c>
       <c r="G67" t="n">
-        <v>207.3436279296875</v>
+        <v>373.2246398925781</v>
       </c>
       <c r="H67" t="n">
-        <v>21.46236038208008</v>
+        <v>113.3078536987305</v>
       </c>
       <c r="I67" t="n">
-        <v>-229.6848602294922</v>
+        <v>-95.70772552490234</v>
       </c>
       <c r="J67" t="n">
-        <v>54.65819549560547</v>
+        <v>108.897819519043</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>54.82432856758766</v>
       </c>
       <c r="G68" t="n">
-        <v>205.7682495117188</v>
+        <v>359.6614685058594</v>
       </c>
       <c r="H68" t="n">
-        <v>20.91900444030762</v>
+        <v>118.5269088745117</v>
       </c>
       <c r="I68" t="n">
-        <v>-193.0199737548828</v>
+        <v>-66.26609802246094</v>
       </c>
       <c r="J68" t="n">
-        <v>64.88190460205078</v>
+        <v>118.5737915039062</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>54.18769809434324</v>
       </c>
       <c r="G69" t="n">
-        <v>206.4842987060547</v>
+        <v>349.4761962890625</v>
       </c>
       <c r="H69" t="n">
-        <v>20.44129753112793</v>
+        <v>126.0227355957031</v>
       </c>
       <c r="I69" t="n">
-        <v>-129.6396484375</v>
+        <v>4.73530912399292</v>
       </c>
       <c r="J69" t="n">
-        <v>81.42447662353516</v>
+        <v>143.2160797119141</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>51.347187815424</v>
       </c>
       <c r="G70" t="n">
-        <v>210.7485809326172</v>
+        <v>350.7784729003906</v>
       </c>
       <c r="H70" t="n">
-        <v>20.63101959228516</v>
+        <v>128.4955444335938</v>
       </c>
       <c r="I70" t="n">
-        <v>-25.20581817626953</v>
+        <v>141.0819549560547</v>
       </c>
       <c r="J70" t="n">
-        <v>106.9445648193359</v>
+        <v>189.4106903076172</v>
       </c>
     </row>
   </sheetData>
